--- a/output/0/tRNA-Asn-GTT-1-1.xlsx
+++ b/output/0/tRNA-Asn-GTT-1-1.xlsx
@@ -12,24 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>chr1</t>
   </si>
   <si>
-    <t>161510027</t>
-  </si>
-  <si>
-    <t>161510050</t>
+    <t>161510039</t>
+  </si>
+  <si>
+    <t>161510062</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>161510030</t>
+    <t>+</t>
+  </si>
+  <si>
+    <t>161510059</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,58 +38,28 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>ACCGATTGCGCCACAGAGAC</t>
-  </si>
-  <si>
-    <t>GGG</t>
+    <t>GCGCAATCGGTTAGCGCGTT</t>
+  </si>
+  <si>
+    <t>CGG</t>
   </si>
   <si>
     <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
   </si>
   <si>
-    <t>43% (48)</t>
-  </si>
-  <si>
-    <t>82% (62)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>61</t>
+    <t>18% (37)</t>
+  </si>
+  <si>
+    <t>100% (101)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
   <si>
     <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>161510039</t>
-  </si>
-  <si>
-    <t>161510062</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>161510059</t>
-  </si>
-  <si>
-    <t>GCGCAATCGGTTAGCGCGTT</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>18% (37)</t>
-  </si>
-  <si>
-    <t>100% (101)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>70</t>
   </si>
   <si>
     <t>161510054</t>
@@ -206,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -229,10 +199,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -285,13 +255,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -303,25 +273,25 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
       </c>
       <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -335,22 +305,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -362,25 +332,25 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -394,22 +364,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -421,89 +391,30 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
       </c>
       <c r="S4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5" t="s">
         <v>3</v>
       </c>
     </row>
